--- a/ft.xlsx
+++ b/ft.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\008028\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\MinWeiTsai\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>融合等級高可不賣，其他可賣出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -390,6 +386,11 @@
   </si>
   <si>
     <t>(先發名單、等級76以上)且5融未滿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融合等級高可不賣，等昇值
+其他可賣出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -496,6 +497,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,7 +912,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -935,7 +939,7 @@
         <v>21</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -955,7 +959,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.25">
@@ -975,7 +979,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -995,7 +999,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
@@ -1015,7 +1019,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1033,7 +1037,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
@@ -1048,10 +1052,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
@@ -1066,10 +1070,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.25">
@@ -1086,10 +1090,10 @@
         <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.25">
@@ -1106,10 +1110,10 @@
         <v>16</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.25">
@@ -1126,10 +1130,10 @@
         <v>17</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1149,7 +1153,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1167,10 +1171,10 @@
         <v>20</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1181,11 +1185,11 @@
         <v>18</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>31</v>
+      <c r="E14" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,7 +1207,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
